--- a/bin/Debug/data_mahasiswa.xlsx
+++ b/bin/Debug/data_mahasiswa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumen\School\Kuliah\Matkul\Semester 3\Algoritma Pemrograman 2\UAS\UAS_APP\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B18D7AB-E275-4767-B679-FCB939B38863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAA230B-ECA9-4FEC-A202-9FB27EABF7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,13 +381,12 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -398,9 +397,6 @@
         <v>2</v>
       </c>
       <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="D1">
         <v>4</v>
       </c>
       <c r="E1">
@@ -431,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -447,11 +443,11 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>12312</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
-      </c>
-      <c r="D6">
-        <v>12312</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -464,11 +460,11 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>45123</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
-      </c>
-      <c r="D7">
-        <v>45123</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
